--- a/analysis/metadata/P04_4/P04_4_minimal_metadata.xlsx
+++ b/analysis/metadata/P04_4/P04_4_minimal_metadata.xlsx
@@ -468,7 +468,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>2020-10-09</t>
+          <t>09/10/2020 00:00</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -493,7 +493,7 @@
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>2020-10-09</t>
+          <t>09/10/2020 00:00</t>
         </is>
       </c>
     </row>
@@ -526,7 +526,7 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>2020-10-09</t>
+          <t>09/10/2020 00:00</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
@@ -551,7 +551,7 @@
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>2020-10-09</t>
+          <t>09/10/2020 00:00</t>
         </is>
       </c>
     </row>
@@ -584,7 +584,7 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>2020-10-09</t>
+          <t>09/10/2020 03:42</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
@@ -609,7 +609,7 @@
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>2020-10-09</t>
+          <t>09/10/2020 03:42</t>
         </is>
       </c>
     </row>
@@ -642,7 +642,7 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>2020-10-09</t>
+          <t>09/10/2020 07:02</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
@@ -667,7 +667,7 @@
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>2020-10-09</t>
+          <t>09/10/2020 07:02</t>
         </is>
       </c>
     </row>
@@ -700,7 +700,7 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>2020-10-09</t>
+          <t>09/10/2020 07:10</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
@@ -725,7 +725,7 @@
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>2020-10-09</t>
+          <t>09/10/2020 07:10</t>
         </is>
       </c>
     </row>
@@ -758,7 +758,7 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>2020-10-09</t>
+          <t>09/10/2020 07:06</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
@@ -783,7 +783,7 @@
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>2020-10-09</t>
+          <t>09/10/2020 07:06</t>
         </is>
       </c>
     </row>
@@ -816,7 +816,7 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>2020-10-09</t>
+          <t>09/10/2020 04:32</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
@@ -841,7 +841,7 @@
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>2020-10-09</t>
+          <t>09/10/2020 04:32</t>
         </is>
       </c>
     </row>
@@ -874,7 +874,7 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>2020-10-09</t>
+          <t>09/10/2020 04:37</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
@@ -899,7 +899,7 @@
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>2020-10-09</t>
+          <t>09/10/2020 04:37</t>
         </is>
       </c>
     </row>
@@ -932,7 +932,7 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>2020-10-09</t>
+          <t>09/10/2020 04:44</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
@@ -957,7 +957,7 @@
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>2020-10-09</t>
+          <t>09/10/2020 04:44</t>
         </is>
       </c>
     </row>
@@ -990,7 +990,7 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>2020-10-09</t>
+          <t>09/10/2020 03:55</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
@@ -1015,7 +1015,7 @@
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>2020-10-09</t>
+          <t>09/10/2020 03:55</t>
         </is>
       </c>
     </row>
@@ -1048,7 +1048,7 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>2020-10-09</t>
+          <t>09/10/2020 03:57</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
@@ -1073,7 +1073,7 @@
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>2020-10-09</t>
+          <t>09/10/2020 03:57</t>
         </is>
       </c>
     </row>
@@ -1106,7 +1106,7 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>2020-10-09</t>
+          <t>09/10/2020 03:53</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
@@ -1131,7 +1131,7 @@
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>2020-10-09</t>
+          <t>09/10/2020 03:53</t>
         </is>
       </c>
     </row>
@@ -1164,7 +1164,7 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>2020-10-09</t>
+          <t>09/10/2020 03:59</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
@@ -1189,7 +1189,7 @@
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>2020-10-09</t>
+          <t>09/10/2020 03:59</t>
         </is>
       </c>
     </row>
@@ -1222,7 +1222,7 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>2020-10-09</t>
+          <t>09/10/2020 03:35</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
@@ -1247,7 +1247,7 @@
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>2020-10-09</t>
+          <t>09/10/2020 03:35</t>
         </is>
       </c>
     </row>
@@ -1280,7 +1280,7 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>2020-10-09</t>
+          <t>09/10/2020 03:40</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
@@ -1305,7 +1305,7 @@
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>2020-10-09</t>
+          <t>09/10/2020 03:40</t>
         </is>
       </c>
     </row>
@@ -1338,7 +1338,7 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>2020-09-30</t>
+          <t>30/09/2020 04:36</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
@@ -1363,7 +1363,7 @@
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>2020-09-30</t>
+          <t>30/09/2020 04:36</t>
         </is>
       </c>
     </row>
@@ -1396,7 +1396,7 @@
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>2020-09-30</t>
+          <t>30/09/2020 04:41</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
@@ -1421,7 +1421,7 @@
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>2020-09-30</t>
+          <t>30/09/2020 04:41</t>
         </is>
       </c>
     </row>
@@ -1454,7 +1454,7 @@
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>2020-09-30</t>
+          <t>30/09/2020 04:29</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
@@ -1479,7 +1479,7 @@
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>2020-09-30</t>
+          <t>30/09/2020 04:29</t>
         </is>
       </c>
     </row>
@@ -1512,7 +1512,7 @@
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>2020-09-30</t>
+          <t>30/09/2020 04:18</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
@@ -1537,7 +1537,7 @@
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>2020-09-30</t>
+          <t>30/09/2020 04:18</t>
         </is>
       </c>
     </row>
@@ -1570,7 +1570,7 @@
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>2020-09-30</t>
+          <t>30/09/2020 04:07</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
@@ -1595,7 +1595,7 @@
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>2020-09-30</t>
+          <t>30/09/2020 04:07</t>
         </is>
       </c>
     </row>
@@ -1628,7 +1628,7 @@
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>2020-09-30</t>
+          <t>30/09/2020 04:12</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
@@ -1653,7 +1653,7 @@
       </c>
       <c r="M22" t="inlineStr">
         <is>
-          <t>2020-09-30</t>
+          <t>30/09/2020 04:12</t>
         </is>
       </c>
     </row>
@@ -1675,7 +1675,7 @@
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>2020-10-30</t>
+          <t>07/02/2020 00:00</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
@@ -1717,7 +1717,7 @@
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>2020-10-30</t>
+          <t>07/02/2020 00:00</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
@@ -1759,7 +1759,7 @@
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>2020-10-30</t>
+          <t>07/02/2020 00:00</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
@@ -1801,7 +1801,7 @@
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>2020-10-30</t>
+          <t>07/02/2020 00:00</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
@@ -1843,7 +1843,7 @@
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>2020-10-30</t>
+          <t>07/02/2020 00:00</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
@@ -1885,7 +1885,7 @@
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>2020-10-30</t>
+          <t>07/02/2020 00:00</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
@@ -1927,7 +1927,7 @@
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>2020-10-30</t>
+          <t>07/02/2020 00:00</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
@@ -1969,7 +1969,7 @@
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>2020-10-30</t>
+          <t>07/02/2020 00:00</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
@@ -2011,7 +2011,7 @@
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>2020-10-30</t>
+          <t>07/02/2020 00:00</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
@@ -2053,7 +2053,7 @@
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>2020-10-30</t>
+          <t>07/02/2020 00:00</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
@@ -2095,7 +2095,7 @@
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>2020-10-30</t>
+          <t>07/02/2020 00:00</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">

--- a/analysis/metadata/P04_4/P04_4_minimal_metadata.xlsx
+++ b/analysis/metadata/P04_4/P04_4_minimal_metadata.xlsx
@@ -468,7 +468,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>09/10/2020 00:00</t>
+          <t>2020-10-09</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -493,7 +493,7 @@
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>09/10/2020 00:00</t>
+          <t>2020-10-09</t>
         </is>
       </c>
     </row>
@@ -526,7 +526,7 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>09/10/2020 00:00</t>
+          <t>2020-10-09</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
@@ -551,7 +551,7 @@
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>09/10/2020 00:00</t>
+          <t>2020-10-09</t>
         </is>
       </c>
     </row>
@@ -584,7 +584,7 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>09/10/2020 03:42</t>
+          <t>2020-10-09</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
@@ -609,7 +609,7 @@
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>09/10/2020 03:42</t>
+          <t>2020-10-09</t>
         </is>
       </c>
     </row>
@@ -642,7 +642,7 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>09/10/2020 07:02</t>
+          <t>2020-10-09</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
@@ -667,7 +667,7 @@
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>09/10/2020 07:02</t>
+          <t>2020-10-09</t>
         </is>
       </c>
     </row>
@@ -700,7 +700,7 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>09/10/2020 07:10</t>
+          <t>2020-10-09</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
@@ -725,7 +725,7 @@
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>09/10/2020 07:10</t>
+          <t>2020-10-09</t>
         </is>
       </c>
     </row>
@@ -758,7 +758,7 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>09/10/2020 07:06</t>
+          <t>2020-10-09</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
@@ -783,7 +783,7 @@
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>09/10/2020 07:06</t>
+          <t>2020-10-09</t>
         </is>
       </c>
     </row>
@@ -816,7 +816,7 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>09/10/2020 04:32</t>
+          <t>2020-10-09</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
@@ -841,7 +841,7 @@
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>09/10/2020 04:32</t>
+          <t>2020-10-09</t>
         </is>
       </c>
     </row>
@@ -874,7 +874,7 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>09/10/2020 04:37</t>
+          <t>2020-10-09</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
@@ -899,7 +899,7 @@
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>09/10/2020 04:37</t>
+          <t>2020-10-09</t>
         </is>
       </c>
     </row>
@@ -932,7 +932,7 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>09/10/2020 04:44</t>
+          <t>2020-10-09</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
@@ -957,7 +957,7 @@
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>09/10/2020 04:44</t>
+          <t>2020-10-09</t>
         </is>
       </c>
     </row>
@@ -990,7 +990,7 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>09/10/2020 03:55</t>
+          <t>2020-10-09</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
@@ -1015,7 +1015,7 @@
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>09/10/2020 03:55</t>
+          <t>2020-10-09</t>
         </is>
       </c>
     </row>
@@ -1048,7 +1048,7 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>09/10/2020 03:57</t>
+          <t>2020-10-09</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
@@ -1073,7 +1073,7 @@
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>09/10/2020 03:57</t>
+          <t>2020-10-09</t>
         </is>
       </c>
     </row>
@@ -1106,7 +1106,7 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>09/10/2020 03:53</t>
+          <t>2020-10-09</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
@@ -1131,7 +1131,7 @@
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>09/10/2020 03:53</t>
+          <t>2020-10-09</t>
         </is>
       </c>
     </row>
@@ -1164,7 +1164,7 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>09/10/2020 03:59</t>
+          <t>2020-10-09</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
@@ -1189,7 +1189,7 @@
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>09/10/2020 03:59</t>
+          <t>2020-10-09</t>
         </is>
       </c>
     </row>
@@ -1222,7 +1222,7 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>09/10/2020 03:35</t>
+          <t>2020-10-09</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
@@ -1247,7 +1247,7 @@
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>09/10/2020 03:35</t>
+          <t>2020-10-09</t>
         </is>
       </c>
     </row>
@@ -1280,7 +1280,7 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>09/10/2020 03:40</t>
+          <t>2020-10-09</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
@@ -1305,7 +1305,7 @@
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>09/10/2020 03:40</t>
+          <t>2020-10-09</t>
         </is>
       </c>
     </row>
@@ -1338,7 +1338,7 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>30/09/2020 04:36</t>
+          <t>2020-09-30</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
@@ -1363,7 +1363,7 @@
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>30/09/2020 04:36</t>
+          <t>2020-09-30</t>
         </is>
       </c>
     </row>
@@ -1396,7 +1396,7 @@
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>30/09/2020 04:41</t>
+          <t>2020-09-30</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
@@ -1421,7 +1421,7 @@
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>30/09/2020 04:41</t>
+          <t>2020-09-30</t>
         </is>
       </c>
     </row>
@@ -1454,7 +1454,7 @@
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>30/09/2020 04:29</t>
+          <t>2020-09-30</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
@@ -1479,7 +1479,7 @@
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>30/09/2020 04:29</t>
+          <t>2020-09-30</t>
         </is>
       </c>
     </row>
@@ -1512,7 +1512,7 @@
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>30/09/2020 04:18</t>
+          <t>2020-09-30</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
@@ -1537,7 +1537,7 @@
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>30/09/2020 04:18</t>
+          <t>2020-09-30</t>
         </is>
       </c>
     </row>
@@ -1570,7 +1570,7 @@
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>30/09/2020 04:07</t>
+          <t>2020-09-30</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
@@ -1595,7 +1595,7 @@
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>30/09/2020 04:07</t>
+          <t>2020-09-30</t>
         </is>
       </c>
     </row>
@@ -1628,7 +1628,7 @@
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>30/09/2020 04:12</t>
+          <t>2020-09-30</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
@@ -1653,7 +1653,7 @@
       </c>
       <c r="M22" t="inlineStr">
         <is>
-          <t>30/09/2020 04:12</t>
+          <t>2020-09-30</t>
         </is>
       </c>
     </row>
@@ -1675,7 +1675,7 @@
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>07/02/2020 00:00</t>
+          <t>2020-02-07</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
@@ -1717,7 +1717,7 @@
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>07/02/2020 00:00</t>
+          <t>2020-02-07</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
@@ -1759,7 +1759,7 @@
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>07/02/2020 00:00</t>
+          <t>2020-02-07</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
@@ -1801,7 +1801,7 @@
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>07/02/2020 00:00</t>
+          <t>2020-02-07</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
@@ -1843,7 +1843,7 @@
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>07/02/2020 00:00</t>
+          <t>2020-02-07</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
@@ -1885,7 +1885,7 @@
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>07/02/2020 00:00</t>
+          <t>2020-02-07</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
@@ -1927,7 +1927,7 @@
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>07/02/2020 00:00</t>
+          <t>2020-02-07</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
@@ -1969,7 +1969,7 @@
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>07/02/2020 00:00</t>
+          <t>2020-02-07</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
@@ -2011,7 +2011,7 @@
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>07/02/2020 00:00</t>
+          <t>2020-02-07</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
@@ -2053,7 +2053,7 @@
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>07/02/2020 00:00</t>
+          <t>2020-02-07</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
@@ -2095,7 +2095,7 @@
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>07/02/2020 00:00</t>
+          <t>2020-02-07</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">

--- a/analysis/metadata/P04_4/P04_4_minimal_metadata.xlsx
+++ b/analysis/metadata/P04_4/P04_4_minimal_metadata.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P33"/>
+  <dimension ref="A1:P22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -461,11 +461,6 @@
           <t>agriculture</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>AGRICULTURE</t>
-        </is>
-      </c>
       <c r="H2" t="inlineStr">
         <is>
           <t>2020-10-09</t>
@@ -519,11 +514,6 @@
           <t>agriculture</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>AGRICULTURE</t>
-        </is>
-      </c>
       <c r="H3" t="inlineStr">
         <is>
           <t>2020-10-09</t>
@@ -577,11 +567,6 @@
           <t>agriculture</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>AGRICULTURE</t>
-        </is>
-      </c>
       <c r="H4" t="inlineStr">
         <is>
           <t>2020-10-09</t>
@@ -635,11 +620,6 @@
           <t>agriculture</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>AGRICULTURE</t>
-        </is>
-      </c>
       <c r="H5" t="inlineStr">
         <is>
           <t>2020-10-09</t>
@@ -693,11 +673,6 @@
           <t>agriculture</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>AGRICULTURE</t>
-        </is>
-      </c>
       <c r="H6" t="inlineStr">
         <is>
           <t>2020-10-09</t>
@@ -751,11 +726,6 @@
           <t>agriculture</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>AGRICULTURE</t>
-        </is>
-      </c>
       <c r="H7" t="inlineStr">
         <is>
           <t>2020-10-09</t>
@@ -809,11 +779,6 @@
           <t>agriculture</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>AGRICULTURE</t>
-        </is>
-      </c>
       <c r="H8" t="inlineStr">
         <is>
           <t>2020-10-09</t>
@@ -867,11 +832,6 @@
           <t>agriculture</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>AGRICULTURE</t>
-        </is>
-      </c>
       <c r="H9" t="inlineStr">
         <is>
           <t>2020-10-09</t>
@@ -925,11 +885,6 @@
           <t>agriculture</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>AGRICULTURE</t>
-        </is>
-      </c>
       <c r="H10" t="inlineStr">
         <is>
           <t>2020-10-09</t>
@@ -983,11 +938,6 @@
           <t>agriculture</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>AGRICULTURE</t>
-        </is>
-      </c>
       <c r="H11" t="inlineStr">
         <is>
           <t>2020-10-09</t>
@@ -1041,11 +991,6 @@
           <t>agriculture</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>AGRICULTURE</t>
-        </is>
-      </c>
       <c r="H12" t="inlineStr">
         <is>
           <t>2020-10-09</t>
@@ -1099,11 +1044,6 @@
           <t>agriculture</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>AGRICULTURE</t>
-        </is>
-      </c>
       <c r="H13" t="inlineStr">
         <is>
           <t>2020-10-09</t>
@@ -1157,11 +1097,6 @@
           <t>agriculture</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>AGRICULTURE</t>
-        </is>
-      </c>
       <c r="H14" t="inlineStr">
         <is>
           <t>2020-10-09</t>
@@ -1215,11 +1150,6 @@
           <t>agriculture</t>
         </is>
       </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>AGRICULTURE</t>
-        </is>
-      </c>
       <c r="H15" t="inlineStr">
         <is>
           <t>2020-10-09</t>
@@ -1273,11 +1203,6 @@
           <t>agriculture</t>
         </is>
       </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>AGRICULTURE</t>
-        </is>
-      </c>
       <c r="H16" t="inlineStr">
         <is>
           <t>2020-10-09</t>
@@ -1331,11 +1256,6 @@
           <t>agriculture</t>
         </is>
       </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>AGRICULTURE</t>
-        </is>
-      </c>
       <c r="H17" t="inlineStr">
         <is>
           <t>2020-09-30</t>
@@ -1389,11 +1309,6 @@
           <t>agriculture</t>
         </is>
       </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>AGRICULTURE</t>
-        </is>
-      </c>
       <c r="H18" t="inlineStr">
         <is>
           <t>2020-09-30</t>
@@ -1447,11 +1362,6 @@
           <t>agriculture</t>
         </is>
       </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>AGRICULTURE</t>
-        </is>
-      </c>
       <c r="H19" t="inlineStr">
         <is>
           <t>2020-09-30</t>
@@ -1505,11 +1415,6 @@
           <t>agriculture</t>
         </is>
       </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>AGRICULTURE</t>
-        </is>
-      </c>
       <c r="H20" t="inlineStr">
         <is>
           <t>2020-09-30</t>
@@ -1563,11 +1468,6 @@
           <t>agriculture</t>
         </is>
       </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>AGRICULTURE</t>
-        </is>
-      </c>
       <c r="H21" t="inlineStr">
         <is>
           <t>2020-09-30</t>
@@ -1621,11 +1521,6 @@
           <t>agriculture</t>
         </is>
       </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>AGRICULTURE</t>
-        </is>
-      </c>
       <c r="H22" t="inlineStr">
         <is>
           <t>2020-09-30</t>
@@ -1654,468 +1549,6 @@
       <c r="M22" t="inlineStr">
         <is>
           <t>2020-09-30</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>MFD04003</t>
-        </is>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>soil</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>agriculture</t>
-        </is>
-      </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>2020-02-07</t>
-        </is>
-      </c>
-      <c r="I23" t="inlineStr">
-        <is>
-          <t>vrj: extra samples sent w kvadratnet2020, no metadata, no permissions</t>
-        </is>
-      </c>
-      <c r="J23" t="inlineStr">
-        <is>
-          <t>P04_4</t>
-        </is>
-      </c>
-      <c r="K23" t="inlineStr">
-        <is>
-          <t>Soil</t>
-        </is>
-      </c>
-      <c r="L23" t="inlineStr">
-        <is>
-          <t>Agriculture</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>MFD04004</t>
-        </is>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>soil</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>agriculture</t>
-        </is>
-      </c>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t>2020-02-07</t>
-        </is>
-      </c>
-      <c r="I24" t="inlineStr">
-        <is>
-          <t>vrj: extra samples sent w kvadratnet2020, no metadata, no permissions</t>
-        </is>
-      </c>
-      <c r="J24" t="inlineStr">
-        <is>
-          <t>P04_4</t>
-        </is>
-      </c>
-      <c r="K24" t="inlineStr">
-        <is>
-          <t>Soil</t>
-        </is>
-      </c>
-      <c r="L24" t="inlineStr">
-        <is>
-          <t>Agriculture</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>MFD04014</t>
-        </is>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>soil</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>agriculture</t>
-        </is>
-      </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t>2020-02-07</t>
-        </is>
-      </c>
-      <c r="I25" t="inlineStr">
-        <is>
-          <t>vrj: extra samples sent w kvadratnet2020, no metadata, no permissions</t>
-        </is>
-      </c>
-      <c r="J25" t="inlineStr">
-        <is>
-          <t>P04_4</t>
-        </is>
-      </c>
-      <c r="K25" t="inlineStr">
-        <is>
-          <t>Soil</t>
-        </is>
-      </c>
-      <c r="L25" t="inlineStr">
-        <is>
-          <t>Agriculture</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>MFD04020</t>
-        </is>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>soil</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>agriculture</t>
-        </is>
-      </c>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t>2020-02-07</t>
-        </is>
-      </c>
-      <c r="I26" t="inlineStr">
-        <is>
-          <t>vrj: extra samples sent w kvadratnet2020, no metadata, no permissions</t>
-        </is>
-      </c>
-      <c r="J26" t="inlineStr">
-        <is>
-          <t>P04_4</t>
-        </is>
-      </c>
-      <c r="K26" t="inlineStr">
-        <is>
-          <t>Soil</t>
-        </is>
-      </c>
-      <c r="L26" t="inlineStr">
-        <is>
-          <t>Agriculture</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>MFD04032</t>
-        </is>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>soil</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>agriculture</t>
-        </is>
-      </c>
-      <c r="H27" t="inlineStr">
-        <is>
-          <t>2020-02-07</t>
-        </is>
-      </c>
-      <c r="I27" t="inlineStr">
-        <is>
-          <t>vrj: extra samples sent w kvadratnet2020, no metadata, no permissions</t>
-        </is>
-      </c>
-      <c r="J27" t="inlineStr">
-        <is>
-          <t>P04_4</t>
-        </is>
-      </c>
-      <c r="K27" t="inlineStr">
-        <is>
-          <t>Soil</t>
-        </is>
-      </c>
-      <c r="L27" t="inlineStr">
-        <is>
-          <t>Agriculture</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>MFD04044</t>
-        </is>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>soil</t>
-        </is>
-      </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>agriculture</t>
-        </is>
-      </c>
-      <c r="H28" t="inlineStr">
-        <is>
-          <t>2020-02-07</t>
-        </is>
-      </c>
-      <c r="I28" t="inlineStr">
-        <is>
-          <t>vrj: extra samples sent w kvadratnet2020, no metadata, no permissions</t>
-        </is>
-      </c>
-      <c r="J28" t="inlineStr">
-        <is>
-          <t>P04_4</t>
-        </is>
-      </c>
-      <c r="K28" t="inlineStr">
-        <is>
-          <t>Soil</t>
-        </is>
-      </c>
-      <c r="L28" t="inlineStr">
-        <is>
-          <t>Agriculture</t>
-        </is>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>MFD04056</t>
-        </is>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>soil</t>
-        </is>
-      </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>agriculture</t>
-        </is>
-      </c>
-      <c r="H29" t="inlineStr">
-        <is>
-          <t>2020-02-07</t>
-        </is>
-      </c>
-      <c r="I29" t="inlineStr">
-        <is>
-          <t>vrj: extra samples sent w kvadratnet2020, no metadata, no permissions</t>
-        </is>
-      </c>
-      <c r="J29" t="inlineStr">
-        <is>
-          <t>P04_4</t>
-        </is>
-      </c>
-      <c r="K29" t="inlineStr">
-        <is>
-          <t>Soil</t>
-        </is>
-      </c>
-      <c r="L29" t="inlineStr">
-        <is>
-          <t>Agriculture</t>
-        </is>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>MFD04069</t>
-        </is>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>soil</t>
-        </is>
-      </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>agriculture</t>
-        </is>
-      </c>
-      <c r="H30" t="inlineStr">
-        <is>
-          <t>2020-02-07</t>
-        </is>
-      </c>
-      <c r="I30" t="inlineStr">
-        <is>
-          <t>vrj: extra samples sent w kvadratnet2020, no metadata, no permissions</t>
-        </is>
-      </c>
-      <c r="J30" t="inlineStr">
-        <is>
-          <t>P04_4</t>
-        </is>
-      </c>
-      <c r="K30" t="inlineStr">
-        <is>
-          <t>Soil</t>
-        </is>
-      </c>
-      <c r="L30" t="inlineStr">
-        <is>
-          <t>Agriculture</t>
-        </is>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>MFD04081</t>
-        </is>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>soil</t>
-        </is>
-      </c>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>agriculture</t>
-        </is>
-      </c>
-      <c r="H31" t="inlineStr">
-        <is>
-          <t>2020-02-07</t>
-        </is>
-      </c>
-      <c r="I31" t="inlineStr">
-        <is>
-          <t>vrj: extra samples sent w kvadratnet2020, no metadata, no permissions</t>
-        </is>
-      </c>
-      <c r="J31" t="inlineStr">
-        <is>
-          <t>P04_4</t>
-        </is>
-      </c>
-      <c r="K31" t="inlineStr">
-        <is>
-          <t>Soil</t>
-        </is>
-      </c>
-      <c r="L31" t="inlineStr">
-        <is>
-          <t>Agriculture</t>
-        </is>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>MFD04105</t>
-        </is>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>soil</t>
-        </is>
-      </c>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t>agriculture</t>
-        </is>
-      </c>
-      <c r="H32" t="inlineStr">
-        <is>
-          <t>2020-02-07</t>
-        </is>
-      </c>
-      <c r="I32" t="inlineStr">
-        <is>
-          <t>vrj: extra samples sent w kvadratnet2020, no metadata, no permissions</t>
-        </is>
-      </c>
-      <c r="J32" t="inlineStr">
-        <is>
-          <t>P04_4</t>
-        </is>
-      </c>
-      <c r="K32" t="inlineStr">
-        <is>
-          <t>Soil</t>
-        </is>
-      </c>
-      <c r="L32" t="inlineStr">
-        <is>
-          <t>Agriculture</t>
-        </is>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="inlineStr">
-        <is>
-          <t>MFD04128</t>
-        </is>
-      </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>soil</t>
-        </is>
-      </c>
-      <c r="E33" t="inlineStr">
-        <is>
-          <t>agriculture</t>
-        </is>
-      </c>
-      <c r="H33" t="inlineStr">
-        <is>
-          <t>2020-02-07</t>
-        </is>
-      </c>
-      <c r="I33" t="inlineStr">
-        <is>
-          <t>vrj: extra samples sent w kvadratnet2020, no metadata, no permissions</t>
-        </is>
-      </c>
-      <c r="J33" t="inlineStr">
-        <is>
-          <t>P04_4</t>
-        </is>
-      </c>
-      <c r="K33" t="inlineStr">
-        <is>
-          <t>Soil</t>
-        </is>
-      </c>
-      <c r="L33" t="inlineStr">
-        <is>
-          <t>Agriculture</t>
         </is>
       </c>
     </row>

--- a/analysis/metadata/P04_4/P04_4_minimal_metadata.xlsx
+++ b/analysis/metadata/P04_4/P04_4_minimal_metadata.xlsx
@@ -461,6 +461,16 @@
           <t>agriculture</t>
         </is>
       </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6141</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>Foulum</t>
+        </is>
+      </c>
       <c r="H2" t="inlineStr">
         <is>
           <t>2020-10-09</t>
@@ -489,6 +499,21 @@
       <c r="M2" t="inlineStr">
         <is>
           <t>2020-10-09</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>Fields</t>
+        </is>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>Poales, Cereal</t>
+        </is>
+      </c>
+      <c r="P2" t="inlineStr">
+        <is>
+          <t>Barley, Spring</t>
         </is>
       </c>
     </row>
@@ -514,6 +539,16 @@
           <t>agriculture</t>
         </is>
       </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>6141</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>Foulum</t>
+        </is>
+      </c>
       <c r="H3" t="inlineStr">
         <is>
           <t>2020-10-09</t>
@@ -542,6 +577,21 @@
       <c r="M3" t="inlineStr">
         <is>
           <t>2020-10-09</t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>Fields</t>
+        </is>
+      </c>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>Poales, Cereal</t>
+        </is>
+      </c>
+      <c r="P3" t="inlineStr">
+        <is>
+          <t>Barley, Spring</t>
         </is>
       </c>
     </row>
@@ -567,6 +617,16 @@
           <t>agriculture</t>
         </is>
       </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>6141</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Foulum</t>
+        </is>
+      </c>
       <c r="H4" t="inlineStr">
         <is>
           <t>2020-10-09</t>
@@ -595,6 +655,21 @@
       <c r="M4" t="inlineStr">
         <is>
           <t>2020-10-09</t>
+        </is>
+      </c>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>Fields</t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>Poales, Cereal</t>
+        </is>
+      </c>
+      <c r="P4" t="inlineStr">
+        <is>
+          <t>Barley, Spring</t>
         </is>
       </c>
     </row>
@@ -620,6 +695,16 @@
           <t>agriculture</t>
         </is>
       </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>6153</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Nørager</t>
+        </is>
+      </c>
       <c r="H5" t="inlineStr">
         <is>
           <t>2020-10-09</t>
@@ -648,6 +733,21 @@
       <c r="M5" t="inlineStr">
         <is>
           <t>2020-10-09</t>
+        </is>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>Fields</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>Poales, Cereal</t>
+        </is>
+      </c>
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>Rye, Winter</t>
         </is>
       </c>
     </row>
@@ -673,6 +773,16 @@
           <t>agriculture</t>
         </is>
       </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>6153</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Nørager</t>
+        </is>
+      </c>
       <c r="H6" t="inlineStr">
         <is>
           <t>2020-10-09</t>
@@ -701,6 +811,21 @@
       <c r="M6" t="inlineStr">
         <is>
           <t>2020-10-09</t>
+        </is>
+      </c>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>Fields</t>
+        </is>
+      </c>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>Poales, Cereal</t>
+        </is>
+      </c>
+      <c r="P6" t="inlineStr">
+        <is>
+          <t>Rye, Winter</t>
         </is>
       </c>
     </row>
@@ -726,6 +851,16 @@
           <t>agriculture</t>
         </is>
       </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>6153</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Nørager</t>
+        </is>
+      </c>
       <c r="H7" t="inlineStr">
         <is>
           <t>2020-10-09</t>
@@ -754,6 +889,21 @@
       <c r="M7" t="inlineStr">
         <is>
           <t>2020-10-09</t>
+        </is>
+      </c>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>Fields</t>
+        </is>
+      </c>
+      <c r="O7" t="inlineStr">
+        <is>
+          <t>Poales, Cereal</t>
+        </is>
+      </c>
+      <c r="P7" t="inlineStr">
+        <is>
+          <t>Rye, Winter</t>
         </is>
       </c>
     </row>
@@ -779,6 +929,16 @@
           <t>agriculture</t>
         </is>
       </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>6141</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Vorning</t>
+        </is>
+      </c>
       <c r="H8" t="inlineStr">
         <is>
           <t>2020-10-09</t>
@@ -807,6 +967,21 @@
       <c r="M8" t="inlineStr">
         <is>
           <t>2020-10-09</t>
+        </is>
+      </c>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>Fields</t>
+        </is>
+      </c>
+      <c r="O8" t="inlineStr">
+        <is>
+          <t>Poales, Cereal</t>
+        </is>
+      </c>
+      <c r="P8" t="inlineStr">
+        <is>
+          <t>Barley, Spring</t>
         </is>
       </c>
     </row>
@@ -832,6 +1007,16 @@
           <t>agriculture</t>
         </is>
       </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>6141</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>Vorning</t>
+        </is>
+      </c>
       <c r="H9" t="inlineStr">
         <is>
           <t>2020-10-09</t>
@@ -860,6 +1045,21 @@
       <c r="M9" t="inlineStr">
         <is>
           <t>2020-10-09</t>
+        </is>
+      </c>
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>Fields</t>
+        </is>
+      </c>
+      <c r="O9" t="inlineStr">
+        <is>
+          <t>Poales, Cereal</t>
+        </is>
+      </c>
+      <c r="P9" t="inlineStr">
+        <is>
+          <t>Barley, Spring</t>
         </is>
       </c>
     </row>
@@ -885,6 +1085,16 @@
           <t>agriculture</t>
         </is>
       </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>6141</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>Vorning</t>
+        </is>
+      </c>
       <c r="H10" t="inlineStr">
         <is>
           <t>2020-10-09</t>
@@ -913,6 +1123,21 @@
       <c r="M10" t="inlineStr">
         <is>
           <t>2020-10-09</t>
+        </is>
+      </c>
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>Fields</t>
+        </is>
+      </c>
+      <c r="O10" t="inlineStr">
+        <is>
+          <t>Poales, Cereal</t>
+        </is>
+      </c>
+      <c r="P10" t="inlineStr">
+        <is>
+          <t>Barley, Spring</t>
         </is>
       </c>
     </row>
@@ -938,6 +1163,16 @@
           <t>agriculture</t>
         </is>
       </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>6141</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>Foulum</t>
+        </is>
+      </c>
       <c r="H11" t="inlineStr">
         <is>
           <t>2020-10-09</t>
@@ -966,6 +1201,21 @@
       <c r="M11" t="inlineStr">
         <is>
           <t>2020-10-09</t>
+        </is>
+      </c>
+      <c r="N11" t="inlineStr">
+        <is>
+          <t>Fields</t>
+        </is>
+      </c>
+      <c r="O11" t="inlineStr">
+        <is>
+          <t>Poales, Cereal</t>
+        </is>
+      </c>
+      <c r="P11" t="inlineStr">
+        <is>
+          <t>Barley, Spring</t>
         </is>
       </c>
     </row>
@@ -991,6 +1241,16 @@
           <t>agriculture</t>
         </is>
       </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>6141</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>Foulum</t>
+        </is>
+      </c>
       <c r="H12" t="inlineStr">
         <is>
           <t>2020-10-09</t>
@@ -1019,6 +1279,21 @@
       <c r="M12" t="inlineStr">
         <is>
           <t>2020-10-09</t>
+        </is>
+      </c>
+      <c r="N12" t="inlineStr">
+        <is>
+          <t>Fields</t>
+        </is>
+      </c>
+      <c r="O12" t="inlineStr">
+        <is>
+          <t>Poales, Cereal</t>
+        </is>
+      </c>
+      <c r="P12" t="inlineStr">
+        <is>
+          <t>Barley, Spring</t>
         </is>
       </c>
     </row>
@@ -1044,6 +1319,16 @@
           <t>agriculture</t>
         </is>
       </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>6141</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>Foulum</t>
+        </is>
+      </c>
       <c r="H13" t="inlineStr">
         <is>
           <t>2020-10-09</t>
@@ -1072,6 +1357,21 @@
       <c r="M13" t="inlineStr">
         <is>
           <t>2020-10-09</t>
+        </is>
+      </c>
+      <c r="N13" t="inlineStr">
+        <is>
+          <t>Fields</t>
+        </is>
+      </c>
+      <c r="O13" t="inlineStr">
+        <is>
+          <t>Poales, Cereal</t>
+        </is>
+      </c>
+      <c r="P13" t="inlineStr">
+        <is>
+          <t>Barley, Spring</t>
         </is>
       </c>
     </row>
@@ -1097,6 +1397,16 @@
           <t>agriculture</t>
         </is>
       </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>6141</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>Foulum</t>
+        </is>
+      </c>
       <c r="H14" t="inlineStr">
         <is>
           <t>2020-10-09</t>
@@ -1125,6 +1435,21 @@
       <c r="M14" t="inlineStr">
         <is>
           <t>2020-10-09</t>
+        </is>
+      </c>
+      <c r="N14" t="inlineStr">
+        <is>
+          <t>Fields</t>
+        </is>
+      </c>
+      <c r="O14" t="inlineStr">
+        <is>
+          <t>Poales, Cereal</t>
+        </is>
+      </c>
+      <c r="P14" t="inlineStr">
+        <is>
+          <t>Barley, Spring</t>
         </is>
       </c>
     </row>
@@ -1150,6 +1475,16 @@
           <t>agriculture</t>
         </is>
       </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>6141</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>Foulum</t>
+        </is>
+      </c>
       <c r="H15" t="inlineStr">
         <is>
           <t>2020-10-09</t>
@@ -1178,6 +1513,21 @@
       <c r="M15" t="inlineStr">
         <is>
           <t>2020-10-09</t>
+        </is>
+      </c>
+      <c r="N15" t="inlineStr">
+        <is>
+          <t>Fields</t>
+        </is>
+      </c>
+      <c r="O15" t="inlineStr">
+        <is>
+          <t>Poales, Cereal</t>
+        </is>
+      </c>
+      <c r="P15" t="inlineStr">
+        <is>
+          <t>Barley, Spring</t>
         </is>
       </c>
     </row>
@@ -1203,6 +1553,16 @@
           <t>agriculture</t>
         </is>
       </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>6141</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>Foulum</t>
+        </is>
+      </c>
       <c r="H16" t="inlineStr">
         <is>
           <t>2020-10-09</t>
@@ -1231,6 +1591,21 @@
       <c r="M16" t="inlineStr">
         <is>
           <t>2020-10-09</t>
+        </is>
+      </c>
+      <c r="N16" t="inlineStr">
+        <is>
+          <t>Fields</t>
+        </is>
+      </c>
+      <c r="O16" t="inlineStr">
+        <is>
+          <t>Poales, Cereal</t>
+        </is>
+      </c>
+      <c r="P16" t="inlineStr">
+        <is>
+          <t>Barley, Spring</t>
         </is>
       </c>
     </row>
@@ -1256,6 +1631,16 @@
           <t>agriculture</t>
         </is>
       </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>6422</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>Favrholt</t>
+        </is>
+      </c>
       <c r="H17" t="inlineStr">
         <is>
           <t>2020-09-30</t>
@@ -1284,6 +1669,21 @@
       <c r="M17" t="inlineStr">
         <is>
           <t>2020-09-30</t>
+        </is>
+      </c>
+      <c r="N17" t="inlineStr">
+        <is>
+          <t>Fields</t>
+        </is>
+      </c>
+      <c r="O17" t="inlineStr">
+        <is>
+          <t>Asterids</t>
+        </is>
+      </c>
+      <c r="P17" t="inlineStr">
+        <is>
+          <t>Solanales, Potato, Starch</t>
         </is>
       </c>
     </row>
@@ -1309,6 +1709,16 @@
           <t>agriculture</t>
         </is>
       </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>6422</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>Favrholt</t>
+        </is>
+      </c>
       <c r="H18" t="inlineStr">
         <is>
           <t>2020-09-30</t>
@@ -1337,6 +1747,21 @@
       <c r="M18" t="inlineStr">
         <is>
           <t>2020-09-30</t>
+        </is>
+      </c>
+      <c r="N18" t="inlineStr">
+        <is>
+          <t>Fields</t>
+        </is>
+      </c>
+      <c r="O18" t="inlineStr">
+        <is>
+          <t>Asterids</t>
+        </is>
+      </c>
+      <c r="P18" t="inlineStr">
+        <is>
+          <t>Solanales, Potato, Starch</t>
         </is>
       </c>
     </row>
@@ -1362,6 +1787,16 @@
           <t>agriculture</t>
         </is>
       </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>6422</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>Favrholt</t>
+        </is>
+      </c>
       <c r="H19" t="inlineStr">
         <is>
           <t>2020-09-30</t>
@@ -1390,6 +1825,21 @@
       <c r="M19" t="inlineStr">
         <is>
           <t>2020-09-30</t>
+        </is>
+      </c>
+      <c r="N19" t="inlineStr">
+        <is>
+          <t>Fields</t>
+        </is>
+      </c>
+      <c r="O19" t="inlineStr">
+        <is>
+          <t>Asterids</t>
+        </is>
+      </c>
+      <c r="P19" t="inlineStr">
+        <is>
+          <t>Solanales, Potato, Starch</t>
         </is>
       </c>
     </row>
@@ -1415,6 +1865,16 @@
           <t>agriculture</t>
         </is>
       </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>6212</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>Favrholt</t>
+        </is>
+      </c>
       <c r="H20" t="inlineStr">
         <is>
           <t>2020-09-30</t>
@@ -1443,6 +1903,21 @@
       <c r="M20" t="inlineStr">
         <is>
           <t>2020-09-30</t>
+        </is>
+      </c>
+      <c r="N20" t="inlineStr">
+        <is>
+          <t>Fields</t>
+        </is>
+      </c>
+      <c r="O20" t="inlineStr">
+        <is>
+          <t>Poales, grass</t>
+        </is>
+      </c>
+      <c r="P20" t="inlineStr">
+        <is>
+          <t>Grass for crop, Ryegrass</t>
         </is>
       </c>
     </row>
@@ -1468,6 +1943,16 @@
           <t>agriculture</t>
         </is>
       </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>6212</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>Favrholt</t>
+        </is>
+      </c>
       <c r="H21" t="inlineStr">
         <is>
           <t>2020-09-30</t>
@@ -1496,6 +1981,21 @@
       <c r="M21" t="inlineStr">
         <is>
           <t>2020-09-30</t>
+        </is>
+      </c>
+      <c r="N21" t="inlineStr">
+        <is>
+          <t>Fields</t>
+        </is>
+      </c>
+      <c r="O21" t="inlineStr">
+        <is>
+          <t>Poales, grass</t>
+        </is>
+      </c>
+      <c r="P21" t="inlineStr">
+        <is>
+          <t>Grass for crop, Ryegrass</t>
         </is>
       </c>
     </row>
@@ -1521,6 +2021,16 @@
           <t>agriculture</t>
         </is>
       </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>6212</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>Favrholt</t>
+        </is>
+      </c>
       <c r="H22" t="inlineStr">
         <is>
           <t>2020-09-30</t>
@@ -1549,6 +2059,21 @@
       <c r="M22" t="inlineStr">
         <is>
           <t>2020-09-30</t>
+        </is>
+      </c>
+      <c r="N22" t="inlineStr">
+        <is>
+          <t>Fields</t>
+        </is>
+      </c>
+      <c r="O22" t="inlineStr">
+        <is>
+          <t>Poales, grass</t>
+        </is>
+      </c>
+      <c r="P22" t="inlineStr">
+        <is>
+          <t>Grass for crop, Ryegrass</t>
         </is>
       </c>
     </row>
